--- a/output/Pareto Output.xlsx
+++ b/output/Pareto Output.xlsx
@@ -13,12 +13,12 @@
     <externalReference r:id="rId1"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">Data!$A$2:$A$23</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Data!$B$1</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Data!$B$2:$B$23</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">#REF!</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">#REF!</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">#REF!</definedName>
     <definedName name="TabList">#NAME?</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -109,11 +109,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <name val="Calibri"/>
       <b/>
-      <color theme="1"/>
-      <sz val="11.000000"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -124,7 +120,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -132,13 +128,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="1" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,15 +707,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="1" max="1" width="34.28515625"/>
-    <col bestFit="1" customWidth="1" min="2" max="2" width="11.28515625"/>
+    <col bestFit="1" min="1" max="1" width="31.8515625"/>
+    <col bestFit="1" min="2" max="2" width="10.8515625"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -718,7 +735,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3">
@@ -726,7 +743,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
@@ -734,7 +751,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -742,7 +759,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
@@ -750,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7">
@@ -758,7 +775,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8">
@@ -766,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
@@ -782,7 +799,7 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11">
@@ -790,7 +807,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>66</v>
       </c>
     </row>
     <row r="12">
@@ -798,7 +815,7 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13">
@@ -806,7 +823,7 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
@@ -814,7 +831,7 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15">
@@ -822,7 +839,7 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
@@ -830,7 +847,7 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>198</v>
       </c>
     </row>
     <row r="17">
@@ -891,7 +908,7 @@
     </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
@@ -899,16 +916,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="V16" activeCellId="0" sqref="V16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <sheetData/>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>